--- a/Prediksjon/Kodekveld_resultat.xlsx
+++ b/Prediksjon/Kodekveld_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bouvetasa-my.sharepoint.com/personal/jens_nilsen_bouvet_no/Documents/Documents/GitHub/onesixtynine/Prediksjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F73B88F-8E86-4354-9947-929AD001A6B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04DE39A5-20F9-4F5B-8B16-25195D5326A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Prediksjon</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Gjennomsnitt</t>
+  </si>
+  <si>
+    <t>Terje</t>
+  </si>
+  <si>
+    <t>Dagens storting</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,6 +185,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7FC74-AC2F-4FAA-A40E-9932AFD1D08A}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L16" si="0">B2+E2+F2+I2+J2</f>
+        <f>B2+E2+F2+I2+J2</f>
         <v>91</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M16" si="1">C2+D2+G2+H2+K2</f>
+        <f>C2+D2+G2+H2+K2</f>
         <v>78</v>
       </c>
       <c r="N2" s="1">
@@ -649,11 +659,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L3:L19" si="0">B3+E3+F3+I3+J3</f>
         <v>93</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M19" si="1">C3+D3+G3+H3+K3</f>
         <v>76</v>
       </c>
       <c r="N3" s="1">
@@ -967,7 +977,9 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -1257,58 +1269,150 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N17" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4">
-        <f>AVERAGE(B2:B16)</f>
-        <v>52.533333333333331</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:K17" si="2">AVERAGE(C2:C16)</f>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B18" s="4">
+        <f>AVERAGE(B2:B17)</f>
+        <v>52.875</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:M18" si="2">AVERAGE(C2:C17)</f>
+        <v>35.6875</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
-        <v>32.666666666666664</v>
-      </c>
-      <c r="E17" s="4">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
-        <v>12.2</v>
-      </c>
-      <c r="F17" s="4">
+        <v>12.0625</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>14.4</v>
-      </c>
-      <c r="G17" s="4">
+        <v>14.3125</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="2"/>
-        <v>4.1333333333333337</v>
-      </c>
-      <c r="H17" s="4">
+        <v>4.0625</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
-        <v>5.8666666666666663</v>
-      </c>
-      <c r="I17" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="J17" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="2"/>
-        <v>7.7333333333333334</v>
-      </c>
-      <c r="K17" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="L17" s="4">
-        <f>B17+E17+F17+I17+J17</f>
-        <v>89.733333333333334</v>
-      </c>
-      <c r="M17" s="4">
-        <f>C17+D17+G17+H17+K17</f>
-        <v>79.404761904761898</v>
-      </c>
-      <c r="N17" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>89.75</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="1"/>
+        <v>79.3125</v>
+      </c>
+      <c r="N18" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <f>B19+E19+F19+I19+J19</f>
+        <v>100</v>
+      </c>
+      <c r="M19" s="2">
+        <f>C19+D19+G19+H19+K19</f>
+        <v>69</v>
+      </c>
+      <c r="N19" s="5">
         <v>169</v>
       </c>
     </row>

--- a/Prediksjon/Kodekveld_resultat.xlsx
+++ b/Prediksjon/Kodekveld_resultat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bouvetasa-my.sharepoint.com/personal/jens_nilsen_bouvet_no/Documents/Documents/GitHub/onesixtynine/Prediksjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F73B88F-8E86-4354-9947-929AD001A6B7}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2743E5B6-B681-4BC1-BA84-44DCF81DEEC1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04DE39A5-20F9-4F5B-8B16-25195D5326A4}"/>
+    <workbookView xWindow="-51720" yWindow="-5385" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{04DE39A5-20F9-4F5B-8B16-25195D5326A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="leaderboards" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>Prediksjon</t>
   </si>
@@ -132,6 +133,27 @@
   </si>
   <si>
     <t>Dagens storting</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>PollOfPolls 18.08.2025</t>
+  </si>
+  <si>
+    <t>Avvik</t>
+  </si>
+  <si>
+    <t>Differanse mellom prediksjon på kodekveld og dagens PollOfPolls</t>
+  </si>
+  <si>
+    <t>Rangering</t>
+  </si>
+  <si>
+    <t>Sum avvik</t>
+  </si>
+  <si>
+    <t>PollOfPolls 18.08.2025 (mandater)</t>
   </si>
 </sst>
 </file>
@@ -155,15 +177,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,11 +199,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -185,10 +228,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7FC74-AC2F-4FAA-A40E-9932AFD1D08A}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,11 +710,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L19" si="0">B3+E3+F3+I3+J3</f>
+        <f t="shared" ref="L3:L18" si="0">B3+E3+F3+I3+J3</f>
         <v>93</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M19" si="1">C3+D3+G3+H3+K3</f>
+        <f t="shared" ref="M3:M18" si="1">C3+D3+G3+H3+K3</f>
         <v>76</v>
       </c>
       <c r="N3" s="1">
@@ -1314,7 +1365,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1374,7 @@
         <v>52.875</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:M18" si="2">AVERAGE(C2:C17)</f>
+        <f t="shared" ref="C18:K18" si="2">AVERAGE(C2:C17)</f>
         <v>35.6875</v>
       </c>
       <c r="D18" s="4">
@@ -1412,13 +1463,1799 @@
         <f>C19+D19+G19+H19+K19</f>
         <v>69</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="1">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5E5B4-9C2A-4D96-AF82-B94A74328507}">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>Sheet1!A2</f>
+        <v>OnesixtyNineV1.0</v>
+      </c>
+      <c r="C4">
+        <f>(ABS(C$2-Sheet1!B2))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>(ABS(D$2-Sheet1!C2))</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>(ABS(E$2-Sheet1!D2))</f>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>(ABS(F$2-Sheet1!E2))</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>(ABS(G$2-Sheet1!F2))</f>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>(ABS(H$2-Sheet1!G2))</f>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>(ABS(I$2-Sheet1!H2))</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>(ABS(J$2-Sheet1!I2))</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>(ABS(K$2-Sheet1!J2))</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>(ABS(L$2-Sheet1!K2))</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C4:L4)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>Sheet1!A3</f>
+        <v>Eksempel</v>
+      </c>
+      <c r="C5">
+        <f>(ABS(C$2-Sheet1!B3))</f>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>(ABS(D$2-Sheet1!C3))</f>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f>(ABS(E$2-Sheet1!D3))</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>(ABS(F$2-Sheet1!E3))</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>(ABS(G$2-Sheet1!F3))</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>(ABS(H$2-Sheet1!G3))</f>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>(ABS(I$2-Sheet1!H3))</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f>(ABS(J$2-Sheet1!I3))</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>(ABS(K$2-Sheet1!J3))</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>(ABS(L$2-Sheet1!K3))</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M20" si="0">SUM(C5:L5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>Sheet1!A4</f>
+        <v>Vibe code v1 (André)</v>
+      </c>
+      <c r="C6">
+        <f>(ABS(C$2-Sheet1!B4))</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>(ABS(D$2-Sheet1!C4))</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>(ABS(E$2-Sheet1!D4))</f>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f>(ABS(F$2-Sheet1!E4))</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>(ABS(G$2-Sheet1!F4))</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>(ABS(H$2-Sheet1!G4))</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>(ABS(I$2-Sheet1!H4))</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>(ABS(J$2-Sheet1!I4))</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>(ABS(K$2-Sheet1!J4))</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>(ABS(L$2-Sheet1!K4))</f>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f>Sheet1!A5</f>
+        <v>Vibe code v2 (André)</v>
+      </c>
+      <c r="C7">
+        <f>(ABS(C$2-Sheet1!B5))</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>(ABS(D$2-Sheet1!C5))</f>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f>(ABS(E$2-Sheet1!D5))</f>
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <f>(ABS(F$2-Sheet1!E5))</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>(ABS(G$2-Sheet1!F5))</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>(ABS(H$2-Sheet1!G5))</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>(ABS(I$2-Sheet1!H5))</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>(ABS(J$2-Sheet1!I5))</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>(ABS(K$2-Sheet1!J5))</f>
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f>(ABS(L$2-Sheet1!K5))</f>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f>Sheet1!A6</f>
+        <v>Vibe code v2.1 (André)</v>
+      </c>
+      <c r="C8">
+        <f>(ABS(C$2-Sheet1!B6))</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>(ABS(D$2-Sheet1!C6))</f>
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <f>(ABS(E$2-Sheet1!D6))</f>
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <f>(ABS(F$2-Sheet1!E6))</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>(ABS(G$2-Sheet1!F6))</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>(ABS(H$2-Sheet1!G6))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>(ABS(I$2-Sheet1!H6))</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>(ABS(J$2-Sheet1!I6))</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>(ABS(K$2-Sheet1!J6))</f>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f>(ABS(L$2-Sheet1!K6))</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>Sheet1!A7</f>
+        <v>Chris</v>
+      </c>
+      <c r="C9">
+        <f>(ABS(C$2-Sheet1!B7))</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>(ABS(D$2-Sheet1!C7))</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>(ABS(E$2-Sheet1!D7))</f>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>(ABS(F$2-Sheet1!E7))</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>(ABS(G$2-Sheet1!F7))</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>(ABS(H$2-Sheet1!G7))</f>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f>(ABS(I$2-Sheet1!H7))</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>(ABS(J$2-Sheet1!I7))</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>(ABS(K$2-Sheet1!J7))</f>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <f>(ABS(L$2-Sheet1!K7))</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>Sheet1!A8</f>
+        <v>Kasper</v>
+      </c>
+      <c r="C10">
+        <f>(ABS(C$2-Sheet1!B8))</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>(ABS(D$2-Sheet1!C8))</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f>(ABS(E$2-Sheet1!D8))</f>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f>(ABS(F$2-Sheet1!E8))</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>(ABS(G$2-Sheet1!F8))</f>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f>(ABS(H$2-Sheet1!G8))</f>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f>(ABS(I$2-Sheet1!H8))</f>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f>(ABS(J$2-Sheet1!I8))</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>(ABS(K$2-Sheet1!J8))</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>(ABS(L$2-Sheet1!K8))</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>Sheet1!A9</f>
+        <v>Markus</v>
+      </c>
+      <c r="C11">
+        <f>(ABS(C$2-Sheet1!B9))</f>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>(ABS(D$2-Sheet1!C9))</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f>(ABS(E$2-Sheet1!D9))</f>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f>(ABS(F$2-Sheet1!E9))</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>(ABS(G$2-Sheet1!F9))</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>(ABS(H$2-Sheet1!G9))</f>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>(ABS(I$2-Sheet1!H9))</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>(ABS(J$2-Sheet1!I9))</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>(ABS(K$2-Sheet1!J9))</f>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f>(ABS(L$2-Sheet1!K9))</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>Sheet1!A10</f>
+        <v>Bare skandaler</v>
+      </c>
+      <c r="C12">
+        <f>(ABS(C$2-Sheet1!B10))</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>(ABS(D$2-Sheet1!C10))</f>
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <f>(ABS(E$2-Sheet1!D10))</f>
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <f>(ABS(F$2-Sheet1!E10))</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>(ABS(G$2-Sheet1!F10))</f>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f>(ABS(H$2-Sheet1!G10))</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>(ABS(I$2-Sheet1!H10))</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>(ABS(J$2-Sheet1!I10))</f>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f>(ABS(K$2-Sheet1!J10))</f>
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f>(ABS(L$2-Sheet1!K10))</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>Sheet1!A11</f>
+        <v>Gunhild</v>
+      </c>
+      <c r="C13">
+        <f>(ABS(C$2-Sheet1!B11))</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>(ABS(D$2-Sheet1!C11))</f>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>(ABS(E$2-Sheet1!D11))</f>
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f>(ABS(F$2-Sheet1!E11))</f>
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f>(ABS(G$2-Sheet1!F11))</f>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f>(ABS(H$2-Sheet1!G11))</f>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>(ABS(I$2-Sheet1!H11))</f>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f>(ABS(J$2-Sheet1!I11))</f>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>(ABS(K$2-Sheet1!J11))</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>(ABS(L$2-Sheet1!K11))</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>Sheet1!A12</f>
+        <v>ARIMA</v>
+      </c>
+      <c r="C14">
+        <f>(ABS(C$2-Sheet1!B12))</f>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>(ABS(D$2-Sheet1!C12))</f>
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f>(ABS(E$2-Sheet1!D12))</f>
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <f>(ABS(F$2-Sheet1!E12))</f>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f>(ABS(G$2-Sheet1!F12))</f>
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <f>(ABS(H$2-Sheet1!G12))</f>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f>(ABS(I$2-Sheet1!H12))</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>(ABS(J$2-Sheet1!I12))</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>(ABS(K$2-Sheet1!J12))</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>(ABS(L$2-Sheet1!K12))</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>Sheet1!A13</f>
+        <v>Mats Erik (alle features på alle)</v>
+      </c>
+      <c r="C15">
+        <f>(ABS(C$2-Sheet1!B13))</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>(ABS(D$2-Sheet1!C13))</f>
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f>(ABS(E$2-Sheet1!D13))</f>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f>(ABS(F$2-Sheet1!E13))</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>(ABS(G$2-Sheet1!F13))</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>(ABS(H$2-Sheet1!G13))</f>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>(ABS(I$2-Sheet1!H13))</f>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>(ABS(J$2-Sheet1!I13))</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>(ABS(K$2-Sheet1!J13))</f>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>(ABS(L$2-Sheet1!K13))</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f>Sheet1!A14</f>
+        <v>Sindre</v>
+      </c>
+      <c r="C16">
+        <f>(ABS(C$2-Sheet1!B14))</f>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>(ABS(D$2-Sheet1!C14))</f>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>(ABS(E$2-Sheet1!D14))</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>(ABS(F$2-Sheet1!E14))</f>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f>(ABS(G$2-Sheet1!F14))</f>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f>(ABS(H$2-Sheet1!G14))</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>(ABS(I$2-Sheet1!H14))</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>(ABS(J$2-Sheet1!I14))</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>(ABS(K$2-Sheet1!J14))</f>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f>(ABS(L$2-Sheet1!K14))</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f>Sheet1!A15</f>
+        <v>Lars</v>
+      </c>
+      <c r="C17">
+        <f>(ABS(C$2-Sheet1!B15))</f>
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <f>(ABS(D$2-Sheet1!C15))</f>
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <f>(ABS(E$2-Sheet1!D15))</f>
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <f>(ABS(F$2-Sheet1!E15))</f>
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f>(ABS(G$2-Sheet1!F15))</f>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f>(ABS(H$2-Sheet1!G15))</f>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f>(ABS(I$2-Sheet1!H15))</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>(ABS(J$2-Sheet1!I15))</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>(ABS(K$2-Sheet1!J15))</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>(ABS(L$2-Sheet1!K15))</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f>Sheet1!A16</f>
+        <v>Amund</v>
+      </c>
+      <c r="C18">
+        <f>(ABS(C$2-Sheet1!B16))</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>(ABS(D$2-Sheet1!C16))</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>(ABS(E$2-Sheet1!D16))</f>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f>(ABS(F$2-Sheet1!E16))</f>
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f>(ABS(G$2-Sheet1!F16))</f>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f>(ABS(H$2-Sheet1!G16))</f>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f>(ABS(I$2-Sheet1!H16))</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>(ABS(J$2-Sheet1!I16))</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>(ABS(K$2-Sheet1!J16))</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>(ABS(L$2-Sheet1!K16))</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f>Sheet1!A17</f>
+        <v>Terje</v>
+      </c>
+      <c r="C19">
+        <f>(ABS(C$2-Sheet1!B17))</f>
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f>(ABS(D$2-Sheet1!C17))</f>
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <f>(ABS(E$2-Sheet1!D17))</f>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f>(ABS(F$2-Sheet1!E17))</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>(ABS(G$2-Sheet1!F17))</f>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>(ABS(H$2-Sheet1!G17))</f>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f>(ABS(I$2-Sheet1!H17))</f>
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <f>(ABS(J$2-Sheet1!I17))</f>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f>(ABS(K$2-Sheet1!J17))</f>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>(ABS(L$2-Sheet1!K17))</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>Sheet1!A19</f>
+        <v>Dagens storting</v>
+      </c>
+      <c r="C20">
+        <f>(ABS(C$2-Sheet1!B19))</f>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>(ABS(D$2-Sheet1!C19))</f>
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>(ABS(E$2-Sheet1!D19))</f>
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <f>(ABS(F$2-Sheet1!E19))</f>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>(ABS(G$2-Sheet1!F19))</f>
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <f>(ABS(H$2-Sheet1!G19))</f>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f>(ABS(I$2-Sheet1!H19))</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>(ABS(J$2-Sheet1!I19))</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>(ABS(K$2-Sheet1!J19))</f>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>(ABS(L$2-Sheet1!K19))</f>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8">
+        <v>42</v>
+      </c>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8">
+        <v>7</v>
+      </c>
+      <c r="I26" s="8">
+        <v>7</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8">
+        <v>10</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8">
+        <v>4</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>4</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>7</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>8</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>5</v>
+      </c>
+      <c r="F35" s="8">
+        <v>3</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>3</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>8</v>
+      </c>
+      <c r="M36" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8">
+        <v>4</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>11</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>3</v>
+      </c>
+      <c r="H38" s="8">
+        <v>4</v>
+      </c>
+      <c r="I38" s="8">
+        <v>5</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>12</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8">
+        <v>17</v>
+      </c>
+      <c r="E39" s="8">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>5</v>
+      </c>
+      <c r="L39" s="8">
+        <v>3</v>
+      </c>
+      <c r="M39" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>13</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>16</v>
+      </c>
+      <c r="E40" s="8">
+        <v>13</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>4</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>9</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>14</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="8">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2</v>
+      </c>
+      <c r="K41" s="8">
+        <v>5</v>
+      </c>
+      <c r="L41" s="8">
+        <v>4</v>
+      </c>
+      <c r="M41" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="8">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8">
+        <v>17</v>
+      </c>
+      <c r="E42" s="8">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8">
+        <v>5</v>
+      </c>
+      <c r="G42" s="8">
+        <v>6</v>
+      </c>
+      <c r="H42" s="8">
+        <v>5</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>16</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>21</v>
+      </c>
+      <c r="F43" s="8">
+        <v>3</v>
+      </c>
+      <c r="G43" s="8">
+        <v>18</v>
+      </c>
+      <c r="H43" s="8">
+        <v>4</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>17</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8</v>
+      </c>
+      <c r="D44" s="8">
+        <v>20</v>
+      </c>
+      <c r="E44" s="8">
+        <v>18</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4</v>
+      </c>
+      <c r="G44" s="8">
+        <v>11</v>
+      </c>
+      <c r="H44" s="8">
+        <v>4</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>2</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:M44">
+    <sortCondition ref="M28:M44"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C27:M27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A28:A44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Prediksjon/Kodekveld_resultat.xlsx
+++ b/Prediksjon/Kodekveld_resultat.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bouvetasa-my.sharepoint.com/personal/jens_nilsen_bouvet_no/Documents/Documents/GitHub/onesixtynine/Prediksjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2743E5B6-B681-4BC1-BA84-44DCF81DEEC1}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{DFC31021-5B7B-4AD0-AFC2-B77663849A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A7C7DA-96EE-428C-9FB8-6D2FA215DB0C}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-5385" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{04DE39A5-20F9-4F5B-8B16-25195D5326A4}"/>
+    <workbookView xWindow="-46350" yWindow="-1605" windowWidth="17280" windowHeight="11415" activeTab="2" xr2:uid="{04DE39A5-20F9-4F5B-8B16-25195D5326A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="leaderboards" sheetId="2" r:id="rId2"/>
+    <sheet name="resultat" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
   <si>
     <t>Prediksjon</t>
   </si>
@@ -155,6 +156,12 @@
   <si>
     <t>PollOfPolls 18.08.2025 (mandater)</t>
   </si>
+  <si>
+    <t>Valgresultat 2025</t>
+  </si>
+  <si>
+    <t>Differanse mellom prediksjon på kodekveld og valresulatat</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -232,14 +245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,6 +273,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +599,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="L10" sqref="L10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,45 +1161,45 @@
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>54</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <v>33</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="12">
         <v>38</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="12">
         <v>12</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="12">
         <v>14</v>
       </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="G13" s="12">
+        <v>3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12">
         <v>9</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="13">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="12">
         <v>169</v>
       </c>
     </row>
@@ -1477,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5E5B4-9C2A-4D96-AF82-B94A74328507}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,18 +1585,18 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
@@ -2430,86 +2452,86 @@
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>53</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>27</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>42</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>10</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>10</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>7</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>7</v>
       </c>
-      <c r="J26" s="8">
-        <v>3</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7">
         <v>10</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2527,699 +2549,699 @@
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>4</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>2</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="8">
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
         <v>6</v>
       </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8">
-        <v>5</v>
-      </c>
-      <c r="H29" s="8">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>2</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>3</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
         <v>6</v>
       </c>
-      <c r="E30" s="8">
-        <v>4</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
-      <c r="G30" s="8">
-        <v>4</v>
-      </c>
-      <c r="H30" s="8">
-        <v>4</v>
-      </c>
-      <c r="I30" s="8">
-        <v>4</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>4</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="7">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>4</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
         <v>8</v>
       </c>
-      <c r="F31" s="8">
-        <v>4</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
+      <c r="F31" s="7">
+        <v>4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>5</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
         <v>6</v>
       </c>
-      <c r="E32" s="8">
-        <v>5</v>
-      </c>
-      <c r="F32" s="8">
-        <v>2</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>6</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="8">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="E33" s="8">
-        <v>5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>2</v>
-      </c>
-      <c r="G33" s="8">
-        <v>3</v>
-      </c>
-      <c r="H33" s="8">
-        <v>4</v>
-      </c>
-      <c r="I33" s="8">
-        <v>4</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="8">
-        <v>1</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
+      <c r="E33" s="7">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>7</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
         <v>8</v>
       </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="8">
-        <v>2</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <v>4</v>
-      </c>
-      <c r="E35" s="8">
-        <v>5</v>
-      </c>
-      <c r="F35" s="8">
-        <v>3</v>
-      </c>
-      <c r="G35" s="8">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8">
-        <v>4</v>
-      </c>
-      <c r="I35" s="8">
-        <v>4</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <v>2</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>3</v>
+      </c>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>9</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="C36" s="7">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
         <v>10</v>
       </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8">
-        <v>4</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>3</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7">
         <v>8</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>10</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
         <v>8</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>7</v>
       </c>
-      <c r="F37" s="8">
-        <v>3</v>
-      </c>
-      <c r="G37" s="8">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8">
-        <v>4</v>
-      </c>
-      <c r="J37" s="8">
-        <v>2</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>11</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="8">
-        <v>5</v>
-      </c>
-      <c r="D38" s="8">
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7">
         <v>9</v>
       </c>
-      <c r="E38" s="8">
-        <v>4</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>3</v>
-      </c>
-      <c r="H38" s="8">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8">
-        <v>5</v>
-      </c>
-      <c r="J38" s="8">
-        <v>2</v>
-      </c>
-      <c r="K38" s="8">
-        <v>2</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
+      <c r="E38" s="7">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>3</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>12</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="8">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" s="7">
+        <v>3</v>
+      </c>
+      <c r="D39" s="7">
         <v>17</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>16</v>
       </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>2</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>2</v>
-      </c>
-      <c r="K39" s="8">
-        <v>5</v>
-      </c>
-      <c r="L39" s="8">
-        <v>3</v>
-      </c>
-      <c r="M39" s="8">
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>5</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3</v>
+      </c>
+      <c r="M39" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>13</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
         <v>16</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>13</v>
       </c>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
-        <v>4</v>
-      </c>
-      <c r="H40" s="8">
-        <v>2</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>2</v>
-      </c>
-      <c r="K40" s="8">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>4</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2</v>
+      </c>
+      <c r="K40" s="7">
         <v>9</v>
       </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8">
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>14</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="8">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
         <v>15</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>17</v>
       </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
-        <v>2</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <v>1</v>
-      </c>
-      <c r="J41" s="8">
-        <v>2</v>
-      </c>
-      <c r="K41" s="8">
-        <v>5</v>
-      </c>
-      <c r="L41" s="8">
-        <v>4</v>
-      </c>
-      <c r="M41" s="8">
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2</v>
+      </c>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>4</v>
+      </c>
+      <c r="M41" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>15</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>11</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>17</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>13</v>
       </c>
-      <c r="F42" s="8">
-        <v>5</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F42" s="7">
+        <v>5</v>
+      </c>
+      <c r="G42" s="7">
         <v>6</v>
       </c>
-      <c r="H42" s="8">
-        <v>5</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-      <c r="K42" s="8">
-        <v>1</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8">
+      <c r="H42" s="7">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>16</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C43" s="7">
+        <v>5</v>
+      </c>
+      <c r="D43" s="7">
         <v>9</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>21</v>
       </c>
-      <c r="F43" s="8">
-        <v>3</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F43" s="7">
+        <v>3</v>
+      </c>
+      <c r="G43" s="7">
         <v>18</v>
       </c>
-      <c r="H43" s="8">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>2</v>
-      </c>
-      <c r="L43" s="8">
-        <v>1</v>
-      </c>
-      <c r="M43" s="8">
+      <c r="H43" s="7">
+        <v>4</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>17</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>8</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>20</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>18</v>
       </c>
-      <c r="F44" s="8">
-        <v>4</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F44" s="7">
+        <v>4</v>
+      </c>
+      <c r="G44" s="7">
         <v>11</v>
       </c>
-      <c r="H44" s="8">
-        <v>4</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>2</v>
-      </c>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8">
+      <c r="H44" s="7">
+        <v>4</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
         <v>68</v>
       </c>
     </row>
@@ -3259,6 +3281,2855 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDB0BF-6359-47AA-B12E-A4280AF32738}">
+  <dimension ref="A1:N70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>Sheet1!A2</f>
+        <v>OnesixtyNineV1.0</v>
+      </c>
+      <c r="C4">
+        <f>(ABS(C$2-Sheet1!B2))</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>(ABS(D$2-Sheet1!C2))</f>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>(ABS(E$2-Sheet1!D2))</f>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f>(ABS(F$2-Sheet1!E2))</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>(ABS(G$2-Sheet1!F2))</f>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f>(ABS(H$2-Sheet1!G2))</f>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>(ABS(I$2-Sheet1!H2))</f>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>(ABS(J$2-Sheet1!I2))</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>(ABS(K$2-Sheet1!J2))</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>(ABS(L$2-Sheet1!K2))</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C4:L4)</f>
+        <v>41</v>
+      </c>
+      <c r="N4" s="11">
+        <f>AVERAGE(C4:L4)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>Sheet1!A3</f>
+        <v>Eksempel</v>
+      </c>
+      <c r="C5">
+        <f>(ABS(C$2-Sheet1!B3))</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>(ABS(D$2-Sheet1!C3))</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f>(ABS(E$2-Sheet1!D3))</f>
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <f>(ABS(F$2-Sheet1!E3))</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>(ABS(G$2-Sheet1!F3))</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>(ABS(H$2-Sheet1!G3))</f>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>(ABS(I$2-Sheet1!H3))</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>(ABS(J$2-Sheet1!I3))</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>(ABS(K$2-Sheet1!J3))</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>(ABS(L$2-Sheet1!K3))</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M20" si="0">SUM(C5:L5)</f>
+        <v>41</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N20" si="1">AVERAGE(C5:L5)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>Sheet1!A4</f>
+        <v>Vibe code v1 (André)</v>
+      </c>
+      <c r="C6">
+        <f>(ABS(C$2-Sheet1!B4))</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>(ABS(D$2-Sheet1!C4))</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>(ABS(E$2-Sheet1!D4))</f>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f>(ABS(F$2-Sheet1!E4))</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>(ABS(G$2-Sheet1!F4))</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>(ABS(H$2-Sheet1!G4))</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>(ABS(I$2-Sheet1!H4))</f>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>(ABS(J$2-Sheet1!I4))</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>(ABS(K$2-Sheet1!J4))</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>(ABS(L$2-Sheet1!K4))</f>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f>Sheet1!A5</f>
+        <v>Vibe code v2 (André)</v>
+      </c>
+      <c r="C7">
+        <f>(ABS(C$2-Sheet1!B5))</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>(ABS(D$2-Sheet1!C5))</f>
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <f>(ABS(E$2-Sheet1!D5))</f>
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <f>(ABS(F$2-Sheet1!E5))</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>(ABS(G$2-Sheet1!F5))</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>(ABS(H$2-Sheet1!G5))</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>(ABS(I$2-Sheet1!H5))</f>
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>(ABS(J$2-Sheet1!I5))</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>(ABS(K$2-Sheet1!J5))</f>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f>(ABS(L$2-Sheet1!K5))</f>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f>Sheet1!A6</f>
+        <v>Vibe code v2.1 (André)</v>
+      </c>
+      <c r="C8">
+        <f>(ABS(C$2-Sheet1!B6))</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>(ABS(D$2-Sheet1!C6))</f>
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f>(ABS(E$2-Sheet1!D6))</f>
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <f>(ABS(F$2-Sheet1!E6))</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>(ABS(G$2-Sheet1!F6))</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>(ABS(H$2-Sheet1!G6))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>(ABS(I$2-Sheet1!H6))</f>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f>(ABS(J$2-Sheet1!I6))</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>(ABS(K$2-Sheet1!J6))</f>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>(ABS(L$2-Sheet1!K6))</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>Sheet1!A7</f>
+        <v>Chris</v>
+      </c>
+      <c r="C9">
+        <f>(ABS(C$2-Sheet1!B7))</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>(ABS(D$2-Sheet1!C7))</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>(ABS(E$2-Sheet1!D7))</f>
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <f>(ABS(F$2-Sheet1!E7))</f>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f>(ABS(G$2-Sheet1!F7))</f>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f>(ABS(H$2-Sheet1!G7))</f>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f>(ABS(I$2-Sheet1!H7))</f>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f>(ABS(J$2-Sheet1!I7))</f>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f>(ABS(K$2-Sheet1!J7))</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>(ABS(L$2-Sheet1!K7))</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>Sheet1!A8</f>
+        <v>Kasper</v>
+      </c>
+      <c r="C10">
+        <f>(ABS(C$2-Sheet1!B8))</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>(ABS(D$2-Sheet1!C8))</f>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>(ABS(E$2-Sheet1!D8))</f>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>(ABS(F$2-Sheet1!E8))</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>(ABS(G$2-Sheet1!F8))</f>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>(ABS(H$2-Sheet1!G8))</f>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f>(ABS(I$2-Sheet1!H8))</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>(ABS(J$2-Sheet1!I8))</f>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <f>(ABS(K$2-Sheet1!J8))</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>(ABS(L$2-Sheet1!K8))</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>Sheet1!A9</f>
+        <v>Markus</v>
+      </c>
+      <c r="C11">
+        <f>(ABS(C$2-Sheet1!B9))</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>(ABS(D$2-Sheet1!C9))</f>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>(ABS(E$2-Sheet1!D9))</f>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f>(ABS(F$2-Sheet1!E9))</f>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>(ABS(G$2-Sheet1!F9))</f>
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f>(ABS(H$2-Sheet1!G9))</f>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>(ABS(I$2-Sheet1!H9))</f>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f>(ABS(J$2-Sheet1!I9))</f>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f>(ABS(K$2-Sheet1!J9))</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>(ABS(L$2-Sheet1!K9))</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>Sheet1!A10</f>
+        <v>Bare skandaler</v>
+      </c>
+      <c r="C12">
+        <f>(ABS(C$2-Sheet1!B10))</f>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>(ABS(D$2-Sheet1!C10))</f>
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <f>(ABS(E$2-Sheet1!D10))</f>
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <f>(ABS(F$2-Sheet1!E10))</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>(ABS(G$2-Sheet1!F10))</f>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f>(ABS(H$2-Sheet1!G10))</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>(ABS(I$2-Sheet1!H10))</f>
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f>(ABS(J$2-Sheet1!I10))</f>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f>(ABS(K$2-Sheet1!J10))</f>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f>(ABS(L$2-Sheet1!K10))</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>Sheet1!A11</f>
+        <v>Gunhild</v>
+      </c>
+      <c r="C13">
+        <f>(ABS(C$2-Sheet1!B11))</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>(ABS(D$2-Sheet1!C11))</f>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f>(ABS(E$2-Sheet1!D11))</f>
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f>(ABS(F$2-Sheet1!E11))</f>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f>(ABS(G$2-Sheet1!F11))</f>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f>(ABS(H$2-Sheet1!G11))</f>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>(ABS(I$2-Sheet1!H11))</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>(ABS(J$2-Sheet1!I11))</f>
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f>(ABS(K$2-Sheet1!J11))</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>(ABS(L$2-Sheet1!K11))</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>Sheet1!A12</f>
+        <v>ARIMA</v>
+      </c>
+      <c r="C14">
+        <f>(ABS(C$2-Sheet1!B12))</f>
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f>(ABS(D$2-Sheet1!C12))</f>
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <f>(ABS(E$2-Sheet1!D12))</f>
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <f>(ABS(F$2-Sheet1!E12))</f>
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>(ABS(G$2-Sheet1!F12))</f>
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f>(ABS(H$2-Sheet1!G12))</f>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f>(ABS(I$2-Sheet1!H12))</f>
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f>(ABS(J$2-Sheet1!I12))</f>
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <f>(ABS(K$2-Sheet1!J12))</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>(ABS(L$2-Sheet1!K12))</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>Sheet1!A13</f>
+        <v>Mats Erik (alle features på alle)</v>
+      </c>
+      <c r="C15">
+        <f>(ABS(C$2-Sheet1!B13))</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>(ABS(D$2-Sheet1!C13))</f>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f>(ABS(E$2-Sheet1!D13))</f>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>(ABS(F$2-Sheet1!E13))</f>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>(ABS(G$2-Sheet1!F13))</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f>(ABS(H$2-Sheet1!G13))</f>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>(ABS(I$2-Sheet1!H13))</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>(ABS(J$2-Sheet1!I13))</f>
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <f>(ABS(K$2-Sheet1!J13))</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>(ABS(L$2-Sheet1!K13))</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f>Sheet1!A14</f>
+        <v>Sindre</v>
+      </c>
+      <c r="C16">
+        <f>(ABS(C$2-Sheet1!B14))</f>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f>(ABS(D$2-Sheet1!C14))</f>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f>(ABS(E$2-Sheet1!D14))</f>
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <f>(ABS(F$2-Sheet1!E14))</f>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f>(ABS(G$2-Sheet1!F14))</f>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f>(ABS(H$2-Sheet1!G14))</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>(ABS(I$2-Sheet1!H14))</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>(ABS(J$2-Sheet1!I14))</f>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f>(ABS(K$2-Sheet1!J14))</f>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>(ABS(L$2-Sheet1!K14))</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f>Sheet1!A15</f>
+        <v>Lars</v>
+      </c>
+      <c r="C17">
+        <f>(ABS(C$2-Sheet1!B15))</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>(ABS(D$2-Sheet1!C15))</f>
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f>(ABS(E$2-Sheet1!D15))</f>
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <f>(ABS(F$2-Sheet1!E15))</f>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <f>(ABS(G$2-Sheet1!F15))</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f>(ABS(H$2-Sheet1!G15))</f>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f>(ABS(I$2-Sheet1!H15))</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f>(ABS(J$2-Sheet1!I15))</f>
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <f>(ABS(K$2-Sheet1!J15))</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>(ABS(L$2-Sheet1!K15))</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f>Sheet1!A16</f>
+        <v>Amund</v>
+      </c>
+      <c r="C18">
+        <f>(ABS(C$2-Sheet1!B16))</f>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f>(ABS(D$2-Sheet1!C16))</f>
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <f>(ABS(E$2-Sheet1!D16))</f>
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <f>(ABS(F$2-Sheet1!E16))</f>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f>(ABS(G$2-Sheet1!F16))</f>
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f>(ABS(H$2-Sheet1!G16))</f>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f>(ABS(I$2-Sheet1!H16))</f>
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <f>(ABS(J$2-Sheet1!I16))</f>
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f>(ABS(K$2-Sheet1!J16))</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>(ABS(L$2-Sheet1!K16))</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f>Sheet1!A17</f>
+        <v>Terje</v>
+      </c>
+      <c r="C19">
+        <f>(ABS(C$2-Sheet1!B17))</f>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f>(ABS(D$2-Sheet1!C17))</f>
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <f>(ABS(E$2-Sheet1!D17))</f>
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f>(ABS(F$2-Sheet1!E17))</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>(ABS(G$2-Sheet1!F17))</f>
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f>(ABS(H$2-Sheet1!G17))</f>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f>(ABS(I$2-Sheet1!H17))</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>(ABS(J$2-Sheet1!I17))</f>
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <f>(ABS(K$2-Sheet1!J17))</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>(ABS(L$2-Sheet1!K17))</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>Sheet1!A19</f>
+        <v>Dagens storting</v>
+      </c>
+      <c r="C20">
+        <f>(ABS(C$2-Sheet1!B19))</f>
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>(ABS(D$2-Sheet1!C19))</f>
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <f>(ABS(E$2-Sheet1!D19))</f>
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(ABS(F$2-Sheet1!E19))</f>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f>(ABS(G$2-Sheet1!F19))</f>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f>(ABS(H$2-Sheet1!G19))</f>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f>(ABS(I$2-Sheet1!H19))</f>
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <f>(ABS(J$2-Sheet1!I19))</f>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f>(ABS(K$2-Sheet1!J19))</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>(ABS(L$2-Sheet1!K19))</f>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7">
+        <v>24</v>
+      </c>
+      <c r="E26" s="7">
+        <v>48</v>
+      </c>
+      <c r="F26" s="7">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7">
+        <v>9</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7">
+        <v>6</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>16</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>8</v>
+      </c>
+      <c r="M33" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>8</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>9</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>6</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7">
+        <v>6</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>6</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>11</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
+        <v>14</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>6</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7">
+        <v>5</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>12</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7">
+        <v>22</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>4</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3</v>
+      </c>
+      <c r="M39" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>13</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>18</v>
+      </c>
+      <c r="E40" s="7">
+        <v>23</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>4</v>
+      </c>
+      <c r="M40" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>14</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>19</v>
+      </c>
+      <c r="E41" s="7">
+        <v>19</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>6</v>
+      </c>
+      <c r="K41" s="7">
+        <v>8</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>15</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="7">
+        <v>10</v>
+      </c>
+      <c r="D42" s="7">
+        <v>20</v>
+      </c>
+      <c r="E42" s="7">
+        <v>19</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>7</v>
+      </c>
+      <c r="H42" s="7">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7">
+        <v>5</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>16</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="7">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>12</v>
+      </c>
+      <c r="E43" s="7">
+        <v>27</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="G43" s="7">
+        <v>19</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7">
+        <v>4</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7">
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>17</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="7">
+        <v>7</v>
+      </c>
+      <c r="D44" s="7">
+        <v>23</v>
+      </c>
+      <c r="E44" s="7">
+        <v>24</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>12</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4</v>
+      </c>
+      <c r="I44" s="7">
+        <v>4</v>
+      </c>
+      <c r="J44" s="7">
+        <v>6</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>48</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f>Sheet1!A2</f>
+        <v>OnesixtyNineV1.0</v>
+      </c>
+      <c r="C54">
+        <f>((C$2-Sheet1!B2)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <f>((D$2-Sheet1!C2)^2)</f>
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <f>((E$2-Sheet1!D2)^2)</f>
+        <v>121</v>
+      </c>
+      <c r="F54">
+        <f>((F$2-Sheet1!E2)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <f>((G$2-Sheet1!F2)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <f>((H$2-Sheet1!G2)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <f>((I$2-Sheet1!H2)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <f>((J$2-Sheet1!I2)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K54">
+        <f>((K$2-Sheet1!J2)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f>((L$2-Sheet1!K2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>SUM(C54:L54)</f>
+        <v>257</v>
+      </c>
+      <c r="N54" s="11">
+        <f>AVERAGE(C54:L54)</f>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f>Sheet1!A3</f>
+        <v>Eksempel</v>
+      </c>
+      <c r="C55">
+        <f>((C$2-Sheet1!B3)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <f>((D$2-Sheet1!C3)^2)</f>
+        <v>81</v>
+      </c>
+      <c r="E55">
+        <f>((E$2-Sheet1!D3)^2)</f>
+        <v>121</v>
+      </c>
+      <c r="F55">
+        <f>((F$2-Sheet1!E3)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <f>((G$2-Sheet1!F3)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <f>((H$2-Sheet1!G3)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <f>((I$2-Sheet1!H3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>((J$2-Sheet1!I3)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <f>((K$2-Sheet1!J3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>((L$2-Sheet1!K3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55:M69" si="2">SUM(C55:L55)</f>
+        <v>293</v>
+      </c>
+      <c r="N55" s="11">
+        <f t="shared" ref="N55:N69" si="3">AVERAGE(C55:L55)</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f>Sheet1!A4</f>
+        <v>Vibe code v1 (André)</v>
+      </c>
+      <c r="C56">
+        <f>((C$2-Sheet1!B4)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <f>((D$2-Sheet1!C4)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <f>((E$2-Sheet1!D4)^2)</f>
+        <v>256</v>
+      </c>
+      <c r="F56">
+        <f>((F$2-Sheet1!E4)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <f>((G$2-Sheet1!F4)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <f>((H$2-Sheet1!G4)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f>((I$2-Sheet1!H4)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <f>((J$2-Sheet1!I4)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f>((K$2-Sheet1!J4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>((L$2-Sheet1!K4)^2)</f>
+        <v>64</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f>Sheet1!A5</f>
+        <v>Vibe code v2 (André)</v>
+      </c>
+      <c r="C57">
+        <f>((C$2-Sheet1!B5)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <f>((D$2-Sheet1!C5)^2)</f>
+        <v>324</v>
+      </c>
+      <c r="E57">
+        <f>((E$2-Sheet1!D5)^2)</f>
+        <v>529</v>
+      </c>
+      <c r="F57">
+        <f>((F$2-Sheet1!E5)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f>((G$2-Sheet1!F5)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <f>((H$2-Sheet1!G5)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f>((I$2-Sheet1!H5)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <f>((J$2-Sheet1!I5)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <f>((K$2-Sheet1!J5)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <f>((L$2-Sheet1!K5)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>937</v>
+      </c>
+      <c r="N57" s="11">
+        <f t="shared" si="3"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f>Sheet1!A6</f>
+        <v>Vibe code v2.1 (André)</v>
+      </c>
+      <c r="C58">
+        <f>((C$2-Sheet1!B6)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <f>((D$2-Sheet1!C6)^2)</f>
+        <v>400</v>
+      </c>
+      <c r="E58">
+        <f>((E$2-Sheet1!D6)^2)</f>
+        <v>484</v>
+      </c>
+      <c r="F58">
+        <f>((F$2-Sheet1!E6)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>((G$2-Sheet1!F6)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <f>((H$2-Sheet1!G6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>((I$2-Sheet1!H6)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J58">
+        <f>((J$2-Sheet1!I6)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <f>((K$2-Sheet1!J6)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="L58">
+        <f>((L$2-Sheet1!K6)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="3"/>
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f>Sheet1!A7</f>
+        <v>Chris</v>
+      </c>
+      <c r="C59">
+        <f>((C$2-Sheet1!B7)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <f>((D$2-Sheet1!C7)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <f>((E$2-Sheet1!D7)^2)</f>
+        <v>144</v>
+      </c>
+      <c r="F59">
+        <f>((F$2-Sheet1!E7)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <f>((G$2-Sheet1!F7)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="H59">
+        <f>((H$2-Sheet1!G7)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <f>((I$2-Sheet1!H7)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J59">
+        <f>((J$2-Sheet1!I7)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K59">
+        <f>((K$2-Sheet1!J7)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f>((L$2-Sheet1!K7)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="N59" s="11">
+        <f t="shared" si="3"/>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f>Sheet1!A8</f>
+        <v>Kasper</v>
+      </c>
+      <c r="C60">
+        <f>((C$2-Sheet1!B8)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <f>((D$2-Sheet1!C8)^2)</f>
+        <v>81</v>
+      </c>
+      <c r="E60">
+        <f>((E$2-Sheet1!D8)^2)</f>
+        <v>121</v>
+      </c>
+      <c r="F60">
+        <f>((F$2-Sheet1!E8)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <f>((G$2-Sheet1!F8)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="H60">
+        <f>((H$2-Sheet1!G8)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I60">
+        <f>((I$2-Sheet1!H8)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>((J$2-Sheet1!I8)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K60">
+        <f>((K$2-Sheet1!J8)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>((L$2-Sheet1!K8)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" si="3"/>
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <f>Sheet1!A9</f>
+        <v>Markus</v>
+      </c>
+      <c r="C61">
+        <f>((C$2-Sheet1!B9)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <f>((D$2-Sheet1!C9)^2)</f>
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <f>((E$2-Sheet1!D9)^2)</f>
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <f>((F$2-Sheet1!E9)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f>((G$2-Sheet1!F9)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <f>((H$2-Sheet1!G9)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I61">
+        <f>((I$2-Sheet1!H9)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <f>((J$2-Sheet1!I9)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <f>((K$2-Sheet1!J9)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f>((L$2-Sheet1!K9)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" si="3"/>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <f>Sheet1!A10</f>
+        <v>Bare skandaler</v>
+      </c>
+      <c r="C62">
+        <f>((C$2-Sheet1!B10)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <f>((D$2-Sheet1!C10)^2)</f>
+        <v>361</v>
+      </c>
+      <c r="E62">
+        <f>((E$2-Sheet1!D10)^2)</f>
+        <v>361</v>
+      </c>
+      <c r="F62">
+        <f>((F$2-Sheet1!E10)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <f>((G$2-Sheet1!F10)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <f>((H$2-Sheet1!G10)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <f>((I$2-Sheet1!H10)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J62">
+        <f>((J$2-Sheet1!I10)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="K62">
+        <f>((K$2-Sheet1!J10)^2)</f>
+        <v>64</v>
+      </c>
+      <c r="L62">
+        <f>((L$2-Sheet1!K10)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="N62" s="11">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <f>Sheet1!A11</f>
+        <v>Gunhild</v>
+      </c>
+      <c r="C63">
+        <f>((C$2-Sheet1!B11)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f>((D$2-Sheet1!C11)^2)</f>
+        <v>121</v>
+      </c>
+      <c r="E63">
+        <f>((E$2-Sheet1!D11)^2)</f>
+        <v>169</v>
+      </c>
+      <c r="F63">
+        <f>((F$2-Sheet1!E11)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <f>((G$2-Sheet1!F11)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="H63">
+        <f>((H$2-Sheet1!G11)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <f>((I$2-Sheet1!H11)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>((J$2-Sheet1!I11)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="K63">
+        <f>((K$2-Sheet1!J11)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f>((L$2-Sheet1!K11)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <f>Sheet1!A12</f>
+        <v>ARIMA</v>
+      </c>
+      <c r="C64">
+        <f>((C$2-Sheet1!B12)^2)</f>
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <f>((D$2-Sheet1!C12)^2)</f>
+        <v>529</v>
+      </c>
+      <c r="E64">
+        <f>((E$2-Sheet1!D12)^2)</f>
+        <v>576</v>
+      </c>
+      <c r="F64">
+        <f>((F$2-Sheet1!E12)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <f>((G$2-Sheet1!F12)^2)</f>
+        <v>144</v>
+      </c>
+      <c r="H64">
+        <f>((H$2-Sheet1!G12)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I64">
+        <f>((I$2-Sheet1!H12)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <f>((J$2-Sheet1!I12)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="K64">
+        <f>((K$2-Sheet1!J12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>((L$2-Sheet1!K12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>1391</v>
+      </c>
+      <c r="N64" s="11">
+        <f t="shared" si="3"/>
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <f>Sheet1!A13</f>
+        <v>Mats Erik (alle features på alle)</v>
+      </c>
+      <c r="C65">
+        <f>((C$2-Sheet1!B13)^2)</f>
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <f>((D$2-Sheet1!C13)^2)</f>
+        <v>81</v>
+      </c>
+      <c r="E65">
+        <f>((E$2-Sheet1!D13)^2)</f>
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <f>((F$2-Sheet1!E13)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <f>((G$2-Sheet1!F13)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="H65">
+        <f>((H$2-Sheet1!G13)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I65">
+        <f>((I$2-Sheet1!H13)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>((J$2-Sheet1!I13)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K65">
+        <f>((K$2-Sheet1!J13)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>((L$2-Sheet1!K13)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="N65" s="11">
+        <f t="shared" si="3"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <f>Sheet1!A14</f>
+        <v>Sindre</v>
+      </c>
+      <c r="C66">
+        <f>((C$2-Sheet1!B14)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <f>((D$2-Sheet1!C14)^2)</f>
+        <v>49</v>
+      </c>
+      <c r="E66">
+        <f>((E$2-Sheet1!D14)^2)</f>
+        <v>121</v>
+      </c>
+      <c r="F66">
+        <f>((F$2-Sheet1!E14)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="G66">
+        <f>((G$2-Sheet1!F14)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="H66">
+        <f>((H$2-Sheet1!G14)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <f>((I$2-Sheet1!H14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>((J$2-Sheet1!I14)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <f>((K$2-Sheet1!J14)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f>((L$2-Sheet1!K14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="N66" s="11">
+        <f t="shared" si="3"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <f>Sheet1!A15</f>
+        <v>Lars</v>
+      </c>
+      <c r="C67">
+        <f>((C$2-Sheet1!B15)^2)</f>
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <f>((D$2-Sheet1!C15)^2)</f>
+        <v>400</v>
+      </c>
+      <c r="E67">
+        <f>((E$2-Sheet1!D15)^2)</f>
+        <v>361</v>
+      </c>
+      <c r="F67">
+        <f>((F$2-Sheet1!E15)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <f>((G$2-Sheet1!F15)^2)</f>
+        <v>49</v>
+      </c>
+      <c r="H67">
+        <f>((H$2-Sheet1!G15)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="I67">
+        <f>((I$2-Sheet1!H15)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="J67">
+        <f>((J$2-Sheet1!I15)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <f>((K$2-Sheet1!J15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f>((L$2-Sheet1!K15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" si="3"/>
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f>Sheet1!A16</f>
+        <v>Amund</v>
+      </c>
+      <c r="C68">
+        <f>((C$2-Sheet1!B16)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <f>((D$2-Sheet1!C16)^2)</f>
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <f>((E$2-Sheet1!D16)^2)</f>
+        <v>196</v>
+      </c>
+      <c r="F68">
+        <f>((F$2-Sheet1!E16)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <f>((G$2-Sheet1!F16)^2)</f>
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <f>((H$2-Sheet1!G16)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I68">
+        <f>((I$2-Sheet1!H16)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="J68">
+        <f>((J$2-Sheet1!I16)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <f>((K$2-Sheet1!J16)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f>((L$2-Sheet1!K16)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="N68" s="11">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <f>Sheet1!A17</f>
+        <v>Terje</v>
+      </c>
+      <c r="C69">
+        <f>((C$2-Sheet1!B17)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="D69">
+        <f>((D$2-Sheet1!C17)^2)</f>
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <f>((E$2-Sheet1!D17)^2)</f>
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <f>((F$2-Sheet1!E17)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f>((G$2-Sheet1!F17)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <f>((H$2-Sheet1!G17)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <f>((I$2-Sheet1!H17)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f>((J$2-Sheet1!I17)^2)</f>
+        <v>36</v>
+      </c>
+      <c r="K69">
+        <f>((K$2-Sheet1!J17)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f>((L$2-Sheet1!K17)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="N69" s="11">
+        <f t="shared" si="3"/>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <f>Sheet1!A18</f>
+        <v>Gjennomsnitt</v>
+      </c>
+      <c r="D70">
+        <f>(ABS(D$2-Sheet1!C69))</f>
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <f>(ABS(E$2-Sheet1!D69))</f>
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <f>(ABS(F$2-Sheet1!E69))</f>
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <f>(ABS(G$2-Sheet1!F69))</f>
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <f>(ABS(H$2-Sheet1!G69))</f>
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <f>(ABS(I$2-Sheet1!H69))</f>
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <f>(ABS(J$2-Sheet1!I69))</f>
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <f>(ABS(K$2-Sheet1!J69))</f>
+        <v>9</v>
+      </c>
+      <c r="L70">
+        <f>(ABS(L$2-Sheet1!K69))</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:M44">
+    <sortCondition ref="M28:M44"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C53:L53"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A28:A44">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{321ebe56-2643-4654-8529-14ee930a2237}" enabled="1" method="Privileged" siteId="{c317fa72-b393-44ea-a87c-ea272e8d963d}" contentBits="0" removed="0"/>
